--- a/testdata/logindata.xlsx
+++ b/testdata/logindata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Bharatiya Vidya Bhavans Sardar Patel Institute Of Technology\#Testing\Automation Testing\SDET_QA\24_SDET_QA_HybridFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD2088B-FE9F-4981-9BE2-6B7E7FCE704E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E3FACD-BE72-4975-87EC-6F17413C90B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{7FB85324-2016-4051-83F5-58694DA688DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{7FB85324-2016-4051-83F5-58694DA688DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Address" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>username</t>
   </si>
@@ -63,6 +64,39 @@
   </si>
   <si>
     <t>dfdfd</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>add1</t>
+  </si>
+  <si>
+    <t>add2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>chavan</t>
+  </si>
+  <si>
+    <t>ebs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pune </t>
+  </si>
+  <si>
+    <t>pune</t>
   </si>
 </sst>
 </file>
@@ -464,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE8CD6B-443C-49BB-9373-0C20EC2B3132}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -556,4 +590,65 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441806AD-CEAB-42B2-AEC4-0F7F9B1B73A2}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>416310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testdata/logindata.xlsx
+++ b/testdata/logindata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Bharatiya Vidya Bhavans Sardar Patel Institute Of Technology\#Testing\Automation Testing\SDET_QA\24_SDET_QA_HybridFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E3FACD-BE72-4975-87EC-6F17413C90B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00540FA-51B9-4BDC-919C-AF789A76033D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{7FB85324-2016-4051-83F5-58694DA688DC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>username</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>pune</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
   </si>
 </sst>
 </file>
@@ -594,15 +606,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441806AD-CEAB-42B2-AEC4-0F7F9B1B73A2}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -624,8 +639,14 @@
       <c r="G1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -646,6 +667,12 @@
       </c>
       <c r="G2">
         <v>416310</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
